--- a/Light/Images/Appraisal Form 2022-23 your_name.xlsx
+++ b/Light/Images/Appraisal Form 2022-23 your_name.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acenetio-my.sharepoint.com/personal/sunil_acenet_io/Documents/AceNet-OneDrive/1-HR-Confidential/Performace review Form (2022-23)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9169d247ab650485/Desktop/Pwa/1UDEMY/JAVASCRIPT/Light/Images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{D51C23CB-1FFB-467F-ADE4-F92BA6FCA94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AAD276C-D64C-408C-BEA2-D4A36818D365}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{D51C23CB-1FFB-467F-ADE4-F92BA6FCA94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A9CE2E6-7436-4D97-AAAD-B480064214E1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F673844A-473C-472C-816A-D18AD973B702}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F673844A-473C-472C-816A-D18AD973B702}"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Definitions" sheetId="3" r:id="rId1"/>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>Generic Rating</t>
   </si>
@@ -208,6 +199,39 @@
   </si>
   <si>
     <t>Inconsistent Contributor</t>
+  </si>
+  <si>
+    <t>Working on internal project and customer satisfied.</t>
+  </si>
+  <si>
+    <t>working on the internal project as per the work plan executing tasks on time</t>
+  </si>
+  <si>
+    <t>I always follow Policy Adherence and also Work Ethics.</t>
+  </si>
+  <si>
+    <t>Information and Data are secure and not shared with anyone. I follow Adherence to organizational policy. Workplace Behaviour is good.</t>
+  </si>
+  <si>
+    <t>Communication is good for Business as well as Personal.</t>
+  </si>
+  <si>
+    <t>overall contribution to the organization is good meeting expectations and behavior also good.</t>
+  </si>
+  <si>
+    <t>Learn react native for mobile application development</t>
+  </si>
+  <si>
+    <t>If stuck on any problem so that time any senior can guide you to resolve the problem.</t>
+  </si>
+  <si>
+    <t>Everything is well and fine.</t>
+  </si>
+  <si>
+    <t>I contribute to developing projects for AceNet.</t>
+  </si>
+  <si>
+    <t>If stuck on any problem time availability of the support team you to resolve the problem.</t>
   </si>
 </sst>
 </file>
@@ -836,7 +860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84146144-E350-4180-B5AD-BCC71469FDFE}">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -938,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4383B94E-7433-4E03-8C4B-62E88FF161EA}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1020,7 +1046,9 @@
       <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
@@ -1030,7 +1058,9 @@
       <c r="B11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="D11" s="14"/>
       <c r="E11" s="23"/>
     </row>
@@ -1041,7 +1071,9 @@
       <c r="B12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
@@ -1051,7 +1083,9 @@
       <c r="B13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.35">
@@ -1061,7 +1095,9 @@
       <c r="B14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="D14" s="14"/>
     </row>
   </sheetData>
@@ -1077,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D9A6BC-06EC-4032-A30C-45E97F34D505}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1182,8 +1218,12 @@
       <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="D13" s="15"/>
       <c r="E13" s="14"/>
     </row>
@@ -1191,8 +1231,12 @@
       <c r="A14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" s="15"/>
       <c r="E14" s="14"/>
     </row>
@@ -1200,8 +1244,12 @@
       <c r="A15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="D15" s="15"/>
       <c r="E15" s="14"/>
     </row>
@@ -1209,8 +1257,12 @@
       <c r="A16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="D16" s="15"/>
       <c r="E16" s="14"/>
     </row>
@@ -1218,8 +1270,12 @@
       <c r="A17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="D17" s="15"/>
       <c r="E17" s="14"/>
     </row>
@@ -1227,8 +1283,12 @@
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="D18" s="15"/>
       <c r="E18" s="14"/>
     </row>
@@ -1296,7 +1356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B636C73-5D19-48F4-A015-DB30E8F0141F}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
